--- a/NhryService/src/main/webapp/report/template/MonthTaskTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/MonthTaskTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>奶站编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奶站名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,14 +80,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,7 +95,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -448,19 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P2"/>
+  <dimension ref="B2:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="24.75" customHeight="1">
+    <row r="2" spans="2:15" ht="24.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,9 +498,6 @@
       </c>
       <c r="O2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/NhryService/src/main/webapp/report/template/MonthTaskTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/MonthTaskTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -127,11 +130,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,13 +460,14 @@
   <dimension ref="B2:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="36.125" customWidth="1"/>
+    <col min="5" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="24.75" customHeight="1">
@@ -470,40 +480,40 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/NhryService/src/main/webapp/report/template/MonthTaskTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/MonthTaskTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform\NhryService\src\main\webapp\report\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\coding\nhry-platform-cbz\NhryService\src\main\webapp\report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>奶站编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>12月</t>
+  </si>
+  <si>
+    <t>年份</t>
   </si>
 </sst>
 </file>
@@ -444,19 +447,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O2"/>
+  <dimension ref="B2:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="24.75" customHeight="1">
+    <row r="2" spans="2:16" ht="24.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,39 +468,42 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
